--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85550.36893715279</v>
+        <v>85550.36893715277</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47744.68038805921</v>
+        <v>47744.6803880592</v>
       </c>
       <c r="C2" t="n">
-        <v>47744.68038805921</v>
+        <v>47744.6803880592</v>
       </c>
       <c r="D2" t="n">
         <v>47744.68038805921</v>
@@ -26326,7 +26328,7 @@
         <v>47744.68038805921</v>
       </c>
       <c r="G2" t="n">
-        <v>47744.68038805921</v>
+        <v>47744.6803880592</v>
       </c>
       <c r="H2" t="n">
         <v>47744.68038805921</v>
@@ -26338,7 +26340,7 @@
         <v>47744.68038805921</v>
       </c>
       <c r="K2" t="n">
-        <v>47744.68038805921</v>
+        <v>47744.6803880592</v>
       </c>
       <c r="L2" t="n">
         <v>47744.68038805921</v>
@@ -26347,10 +26349,10 @@
         <v>47744.68038805921</v>
       </c>
       <c r="N2" t="n">
-        <v>47744.6803880592</v>
+        <v>47744.68038805921</v>
       </c>
       <c r="O2" t="n">
-        <v>47744.6803880592</v>
+        <v>47744.68038805921</v>
       </c>
       <c r="P2" t="n">
         <v>47744.68038805921</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-12407.74204975147</v>
       </c>
       <c r="C6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-12407.74204975147</v>
       </c>
       <c r="D6" t="n">
         <v>-12407.74204975146</v>
@@ -26534,7 +26536,7 @@
         <v>21219.85795024854</v>
       </c>
       <c r="G6" t="n">
-        <v>21219.85795024854</v>
+        <v>21219.85795024853</v>
       </c>
       <c r="H6" t="n">
         <v>21219.85795024854</v>
@@ -26546,7 +26548,7 @@
         <v>21219.85795024854</v>
       </c>
       <c r="K6" t="n">
-        <v>21219.85795024854</v>
+        <v>21219.85795024853</v>
       </c>
       <c r="L6" t="n">
         <v>21219.85795024854</v>
@@ -26555,10 +26557,10 @@
         <v>21219.85795024854</v>
       </c>
       <c r="N6" t="n">
-        <v>21219.85795024853</v>
+        <v>21219.85795024854</v>
       </c>
       <c r="O6" t="n">
-        <v>21219.85795024853</v>
+        <v>21219.85795024854</v>
       </c>
       <c r="P6" t="n">
         <v>21219.85795024854</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85550.36893715277</v>
+        <v>-40309.88390070223</v>
       </c>
     </row>
     <row r="7">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>47744.68038805921</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47744.68038805919</v>
+      </c>
+      <c r="D2" t="n">
         <v>47744.6803880592</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>47744.6803880592</v>
-      </c>
-      <c r="D2" t="n">
-        <v>47744.68038805921</v>
-      </c>
-      <c r="E2" t="n">
-        <v>47744.68038805921</v>
       </c>
       <c r="F2" t="n">
         <v>47744.68038805921</v>
       </c>
       <c r="G2" t="n">
+        <v>47744.68038805921</v>
+      </c>
+      <c r="H2" t="n">
         <v>47744.6803880592</v>
-      </c>
-      <c r="H2" t="n">
-        <v>47744.68038805921</v>
       </c>
       <c r="I2" t="n">
         <v>47744.68038805921</v>
@@ -26349,13 +26349,13 @@
         <v>47744.68038805921</v>
       </c>
       <c r="N2" t="n">
-        <v>47744.68038805921</v>
+        <v>47744.6803880592</v>
       </c>
       <c r="O2" t="n">
         <v>47744.68038805921</v>
       </c>
       <c r="P2" t="n">
-        <v>47744.68038805921</v>
+        <v>47744.6803880592</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12407.74204975147</v>
+        <v>-27450.76277756274</v>
       </c>
       <c r="C6" t="n">
-        <v>-12407.74204975147</v>
+        <v>-27450.76277756276</v>
       </c>
       <c r="D6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-27450.76277756275</v>
       </c>
       <c r="E6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="F6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437258</v>
       </c>
       <c r="G6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437258</v>
       </c>
       <c r="H6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="I6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437258</v>
       </c>
       <c r="J6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437258</v>
       </c>
       <c r="K6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="L6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437258</v>
       </c>
       <c r="M6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437258</v>
       </c>
       <c r="N6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="O6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437265</v>
       </c>
       <c r="P6" t="n">
-        <v>21219.85795024854</v>
+        <v>6176.837222437251</v>
       </c>
     </row>
   </sheetData>
